--- a/docs/7考勤/餐费报销_吴.xlsx
+++ b/docs/7考勤/餐费报销_吴.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -1781,6 +1781,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1840,10 +1844,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2235,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="27"/>
-      <c r="K2" s="261" t="s">
+      <c r="K2" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="245"/>
+      <c r="L2" s="246"/>
       <c r="M2" s="28" t="s">
         <v>10</v>
       </c>
@@ -2247,20 +2247,20 @@
     </row>
     <row r="3" spans="1:26" ht="38.25" customHeight="1">
       <c r="B3" s="9"/>
-      <c r="C3" s="247" t="s">
+      <c r="C3" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="27"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
       <c r="M3" s="41" t="s">
         <v>14</v>
       </c>
@@ -2274,16 +2274,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="33"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="250"/>
-      <c r="L4" s="250"/>
-      <c r="M4" s="250"/>
-      <c r="N4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252"/>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
@@ -2293,16 +2293,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="251"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="252"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1">
@@ -2329,14 +2329,14 @@
       <c r="D7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
       <c r="M7" s="36"/>
       <c r="N7" s="192" t="s">
         <v>46</v>
@@ -2459,17 +2459,17 @@
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="244"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="253"/>
-      <c r="N13" s="254"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="255"/>
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:26" s="135" customFormat="1" ht="20.25" customHeight="1">
@@ -2578,7 +2578,7 @@
       <c r="M18" s="125"/>
       <c r="N18" s="225">
         <f>'A酒店住宿&amp;餐费'!I70</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -2712,7 +2712,7 @@
       <c r="M25" s="139"/>
       <c r="N25" s="129">
         <f>SUM(N18:N23)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O25" s="11"/>
     </row>
@@ -3044,7 +3044,7 @@
   <dimension ref="A2:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3156,13 +3156,15 @@
       </c>
       <c r="E8" s="233"/>
       <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="255" t="s">
+      <c r="G8" s="233" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="256" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="91">
         <f t="shared" ref="I8:I10" si="1">IF(E8="√",25,0)+IF(F8="√",25,0)+IF(G8="√",25,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -3181,7 +3183,7 @@
       <c r="G9" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="256"/>
+      <c r="H9" s="257"/>
       <c r="I9" s="91">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3201,7 +3203,7 @@
       <c r="E10" s="233"/>
       <c r="F10" s="233"/>
       <c r="G10" s="233"/>
-      <c r="H10" s="256"/>
+      <c r="H10" s="257"/>
       <c r="I10" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3221,7 +3223,7 @@
       <c r="E11" s="233"/>
       <c r="F11" s="233"/>
       <c r="G11" s="233"/>
-      <c r="H11" s="256"/>
+      <c r="H11" s="257"/>
       <c r="I11" s="91">
         <f t="shared" ref="I11:I37" si="2">IF(E11="√",25,0)+IF(F11="√",25,0)+IF(G11="√",25,0)</f>
         <v>0</v>
@@ -3241,7 +3243,7 @@
       <c r="E12" s="233"/>
       <c r="F12" s="233"/>
       <c r="G12" s="233"/>
-      <c r="H12" s="256"/>
+      <c r="H12" s="257"/>
       <c r="I12" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3261,7 +3263,7 @@
       <c r="E13" s="233"/>
       <c r="F13" s="233"/>
       <c r="G13" s="233"/>
-      <c r="H13" s="256"/>
+      <c r="H13" s="257"/>
       <c r="I13" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3281,7 +3283,7 @@
       <c r="E14" s="233"/>
       <c r="F14" s="233"/>
       <c r="G14" s="233"/>
-      <c r="H14" s="256"/>
+      <c r="H14" s="257"/>
       <c r="I14" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3301,7 +3303,7 @@
       <c r="E15" s="233"/>
       <c r="F15" s="233"/>
       <c r="G15" s="233"/>
-      <c r="H15" s="256"/>
+      <c r="H15" s="257"/>
       <c r="I15" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3321,7 +3323,7 @@
       <c r="E16" s="233"/>
       <c r="F16" s="233"/>
       <c r="G16" s="233"/>
-      <c r="H16" s="256"/>
+      <c r="H16" s="257"/>
       <c r="I16" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3341,7 +3343,7 @@
       <c r="E17" s="233"/>
       <c r="F17" s="233"/>
       <c r="G17" s="233"/>
-      <c r="H17" s="256"/>
+      <c r="H17" s="257"/>
       <c r="I17" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3361,7 +3363,7 @@
       <c r="E18" s="233"/>
       <c r="F18" s="233"/>
       <c r="G18" s="233"/>
-      <c r="H18" s="256"/>
+      <c r="H18" s="257"/>
       <c r="I18" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3381,7 +3383,7 @@
       <c r="E19" s="233"/>
       <c r="F19" s="233"/>
       <c r="G19" s="233"/>
-      <c r="H19" s="256"/>
+      <c r="H19" s="257"/>
       <c r="I19" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3401,7 +3403,7 @@
       <c r="E20" s="233"/>
       <c r="F20" s="233"/>
       <c r="G20" s="233"/>
-      <c r="H20" s="256"/>
+      <c r="H20" s="257"/>
       <c r="I20" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3421,7 +3423,7 @@
       <c r="E21" s="233"/>
       <c r="F21" s="233"/>
       <c r="G21" s="233"/>
-      <c r="H21" s="256"/>
+      <c r="H21" s="257"/>
       <c r="I21" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3441,7 +3443,7 @@
       <c r="E22" s="233"/>
       <c r="F22" s="233"/>
       <c r="G22" s="233"/>
-      <c r="H22" s="256"/>
+      <c r="H22" s="257"/>
       <c r="I22" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3461,7 +3463,7 @@
       <c r="E23" s="233"/>
       <c r="F23" s="233"/>
       <c r="G23" s="233"/>
-      <c r="H23" s="256"/>
+      <c r="H23" s="257"/>
       <c r="I23" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3481,7 +3483,7 @@
       <c r="E24" s="233"/>
       <c r="F24" s="233"/>
       <c r="G24" s="233"/>
-      <c r="H24" s="256"/>
+      <c r="H24" s="257"/>
       <c r="I24" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3501,7 +3503,7 @@
       <c r="E25" s="233"/>
       <c r="F25" s="233"/>
       <c r="G25" s="233"/>
-      <c r="H25" s="256"/>
+      <c r="H25" s="257"/>
       <c r="I25" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3521,7 +3523,7 @@
       <c r="E26" s="233"/>
       <c r="F26" s="233"/>
       <c r="G26" s="233"/>
-      <c r="H26" s="256"/>
+      <c r="H26" s="257"/>
       <c r="I26" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3541,7 +3543,7 @@
       <c r="E27" s="233"/>
       <c r="F27" s="233"/>
       <c r="G27" s="233"/>
-      <c r="H27" s="256"/>
+      <c r="H27" s="257"/>
       <c r="I27" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3561,7 +3563,7 @@
       <c r="E28" s="233"/>
       <c r="F28" s="233"/>
       <c r="G28" s="233"/>
-      <c r="H28" s="256"/>
+      <c r="H28" s="257"/>
       <c r="I28" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3581,7 +3583,7 @@
       <c r="E29" s="233"/>
       <c r="F29" s="233"/>
       <c r="G29" s="233"/>
-      <c r="H29" s="256"/>
+      <c r="H29" s="257"/>
       <c r="I29" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3601,7 +3603,7 @@
       <c r="E30" s="233"/>
       <c r="F30" s="233"/>
       <c r="G30" s="233"/>
-      <c r="H30" s="256"/>
+      <c r="H30" s="257"/>
       <c r="I30" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3621,7 +3623,7 @@
       <c r="E31" s="233"/>
       <c r="F31" s="233"/>
       <c r="G31" s="233"/>
-      <c r="H31" s="256"/>
+      <c r="H31" s="257"/>
       <c r="I31" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3641,7 +3643,7 @@
       <c r="E32" s="233"/>
       <c r="F32" s="233"/>
       <c r="G32" s="233"/>
-      <c r="H32" s="256"/>
+      <c r="H32" s="257"/>
       <c r="I32" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3661,7 +3663,7 @@
       <c r="E33" s="233"/>
       <c r="F33" s="233"/>
       <c r="G33" s="233"/>
-      <c r="H33" s="256"/>
+      <c r="H33" s="257"/>
       <c r="I33" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3681,7 +3683,7 @@
       <c r="E34" s="233"/>
       <c r="F34" s="233"/>
       <c r="G34" s="233"/>
-      <c r="H34" s="256"/>
+      <c r="H34" s="257"/>
       <c r="I34" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3701,7 +3703,7 @@
       <c r="E35" s="233"/>
       <c r="F35" s="233"/>
       <c r="G35" s="233"/>
-      <c r="H35" s="256"/>
+      <c r="H35" s="257"/>
       <c r="I35" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3721,7 +3723,7 @@
       <c r="E36" s="233"/>
       <c r="F36" s="233"/>
       <c r="G36" s="233"/>
-      <c r="H36" s="256"/>
+      <c r="H36" s="257"/>
       <c r="I36" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3741,7 +3743,7 @@
       <c r="E37" s="233"/>
       <c r="F37" s="233"/>
       <c r="G37" s="233"/>
-      <c r="H37" s="256"/>
+      <c r="H37" s="257"/>
       <c r="I37" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3761,7 +3763,7 @@
       <c r="E38" s="233"/>
       <c r="F38" s="233"/>
       <c r="G38" s="233"/>
-      <c r="H38" s="256"/>
+      <c r="H38" s="257"/>
       <c r="I38" s="91">
         <f t="shared" ref="I38" si="6">IF(E38="√",25,0)+IF(F38="√",25,0)+IF(G38="√",25,0)</f>
         <v>0</v>
@@ -3781,7 +3783,7 @@
       <c r="E39" s="233"/>
       <c r="F39" s="233"/>
       <c r="G39" s="237"/>
-      <c r="H39" s="256"/>
+      <c r="H39" s="257"/>
       <c r="I39" s="91">
         <f t="shared" ref="I39:I69" si="8">IF(E39="√",25,0)+IF(F39="√",25,0)+IF(G39="√",25,0)</f>
         <v>0</v>
@@ -3801,7 +3803,7 @@
       <c r="E40" s="233"/>
       <c r="F40" s="233"/>
       <c r="G40" s="237"/>
-      <c r="H40" s="256"/>
+      <c r="H40" s="257"/>
       <c r="I40" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3821,7 +3823,7 @@
       <c r="E41" s="233"/>
       <c r="F41" s="233"/>
       <c r="G41" s="237"/>
-      <c r="H41" s="256"/>
+      <c r="H41" s="257"/>
       <c r="I41" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3841,7 +3843,7 @@
       <c r="E42" s="233"/>
       <c r="F42" s="233"/>
       <c r="G42" s="237"/>
-      <c r="H42" s="256"/>
+      <c r="H42" s="257"/>
       <c r="I42" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3861,7 +3863,7 @@
       <c r="E43" s="233"/>
       <c r="F43" s="233"/>
       <c r="G43" s="237"/>
-      <c r="H43" s="256"/>
+      <c r="H43" s="257"/>
       <c r="I43" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3881,7 +3883,7 @@
       <c r="E44" s="233"/>
       <c r="F44" s="233"/>
       <c r="G44" s="237"/>
-      <c r="H44" s="256"/>
+      <c r="H44" s="257"/>
       <c r="I44" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3901,7 +3903,7 @@
       <c r="E45" s="233"/>
       <c r="F45" s="233"/>
       <c r="G45" s="237"/>
-      <c r="H45" s="256"/>
+      <c r="H45" s="257"/>
       <c r="I45" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3921,7 +3923,7 @@
       <c r="E46" s="233"/>
       <c r="F46" s="233"/>
       <c r="G46" s="237"/>
-      <c r="H46" s="256"/>
+      <c r="H46" s="257"/>
       <c r="I46" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3941,7 +3943,7 @@
       <c r="E47" s="233"/>
       <c r="F47" s="233"/>
       <c r="G47" s="237"/>
-      <c r="H47" s="256"/>
+      <c r="H47" s="257"/>
       <c r="I47" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3961,7 +3963,7 @@
       <c r="E48" s="233"/>
       <c r="F48" s="233"/>
       <c r="G48" s="237"/>
-      <c r="H48" s="256"/>
+      <c r="H48" s="257"/>
       <c r="I48" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3981,7 +3983,7 @@
       <c r="E49" s="233"/>
       <c r="F49" s="233"/>
       <c r="G49" s="237"/>
-      <c r="H49" s="256"/>
+      <c r="H49" s="257"/>
       <c r="I49" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4001,7 +4003,7 @@
       <c r="E50" s="233"/>
       <c r="F50" s="233"/>
       <c r="G50" s="237"/>
-      <c r="H50" s="256"/>
+      <c r="H50" s="257"/>
       <c r="I50" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4021,7 +4023,7 @@
       <c r="E51" s="233"/>
       <c r="F51" s="233"/>
       <c r="G51" s="237"/>
-      <c r="H51" s="256"/>
+      <c r="H51" s="257"/>
       <c r="I51" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4041,7 +4043,7 @@
       <c r="E52" s="233"/>
       <c r="F52" s="233"/>
       <c r="G52" s="237"/>
-      <c r="H52" s="256"/>
+      <c r="H52" s="257"/>
       <c r="I52" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4061,7 +4063,7 @@
       <c r="E53" s="233"/>
       <c r="F53" s="233"/>
       <c r="G53" s="237"/>
-      <c r="H53" s="256"/>
+      <c r="H53" s="257"/>
       <c r="I53" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4081,7 +4083,7 @@
       <c r="E54" s="233"/>
       <c r="F54" s="233"/>
       <c r="G54" s="237"/>
-      <c r="H54" s="256"/>
+      <c r="H54" s="257"/>
       <c r="I54" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4101,7 +4103,7 @@
       <c r="E55" s="233"/>
       <c r="F55" s="233"/>
       <c r="G55" s="237"/>
-      <c r="H55" s="256"/>
+      <c r="H55" s="257"/>
       <c r="I55" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4121,7 +4123,7 @@
       <c r="E56" s="233"/>
       <c r="F56" s="233"/>
       <c r="G56" s="237"/>
-      <c r="H56" s="256"/>
+      <c r="H56" s="257"/>
       <c r="I56" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4141,7 +4143,7 @@
       <c r="E57" s="233"/>
       <c r="F57" s="233"/>
       <c r="G57" s="237"/>
-      <c r="H57" s="256"/>
+      <c r="H57" s="257"/>
       <c r="I57" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4161,7 +4163,7 @@
       <c r="E58" s="233"/>
       <c r="F58" s="233"/>
       <c r="G58" s="237"/>
-      <c r="H58" s="256"/>
+      <c r="H58" s="257"/>
       <c r="I58" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4181,7 +4183,7 @@
       <c r="E59" s="233"/>
       <c r="F59" s="233"/>
       <c r="G59" s="237"/>
-      <c r="H59" s="256"/>
+      <c r="H59" s="257"/>
       <c r="I59" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4201,7 +4203,7 @@
       <c r="E60" s="233"/>
       <c r="F60" s="233"/>
       <c r="G60" s="237"/>
-      <c r="H60" s="256"/>
+      <c r="H60" s="257"/>
       <c r="I60" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4221,7 +4223,7 @@
       <c r="E61" s="233"/>
       <c r="F61" s="233"/>
       <c r="G61" s="237"/>
-      <c r="H61" s="256"/>
+      <c r="H61" s="257"/>
       <c r="I61" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4241,7 +4243,7 @@
       <c r="E62" s="233"/>
       <c r="F62" s="233"/>
       <c r="G62" s="237"/>
-      <c r="H62" s="256"/>
+      <c r="H62" s="257"/>
       <c r="I62" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4261,7 +4263,7 @@
       <c r="E63" s="233"/>
       <c r="F63" s="233"/>
       <c r="G63" s="237"/>
-      <c r="H63" s="256"/>
+      <c r="H63" s="257"/>
       <c r="I63" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4281,7 +4283,7 @@
       <c r="E64" s="233"/>
       <c r="F64" s="233"/>
       <c r="G64" s="237"/>
-      <c r="H64" s="256"/>
+      <c r="H64" s="257"/>
       <c r="I64" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4301,7 +4303,7 @@
       <c r="E65" s="233"/>
       <c r="F65" s="233"/>
       <c r="G65" s="237"/>
-      <c r="H65" s="256"/>
+      <c r="H65" s="257"/>
       <c r="I65" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4321,7 +4323,7 @@
       <c r="E66" s="233"/>
       <c r="F66" s="233"/>
       <c r="G66" s="237"/>
-      <c r="H66" s="256"/>
+      <c r="H66" s="257"/>
       <c r="I66" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4341,7 +4343,7 @@
       <c r="E67" s="233"/>
       <c r="F67" s="233"/>
       <c r="G67" s="237"/>
-      <c r="H67" s="256"/>
+      <c r="H67" s="257"/>
       <c r="I67" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4361,7 +4363,7 @@
       <c r="E68" s="233"/>
       <c r="F68" s="233"/>
       <c r="G68" s="237"/>
-      <c r="H68" s="256"/>
+      <c r="H68" s="257"/>
       <c r="I68" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4381,7 +4383,7 @@
       <c r="E69" s="233"/>
       <c r="F69" s="233"/>
       <c r="G69" s="237"/>
-      <c r="H69" s="256"/>
+      <c r="H69" s="257"/>
       <c r="I69" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4405,12 +4407,12 @@
       </c>
       <c r="G70" s="238">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="111"/>
       <c r="I70" s="112">
         <f>SUM(I8:I38)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J70" s="113"/>
     </row>
@@ -4562,10 +4564,10 @@
       <c r="F7" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="257" t="s">
+      <c r="G7" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="258"/>
+      <c r="H7" s="259"/>
       <c r="I7" s="191" t="s">
         <v>45</v>
       </c>
@@ -4691,10 +4693,10 @@
       <c r="F17" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="257" t="s">
+      <c r="G17" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="258"/>
+      <c r="H17" s="259"/>
       <c r="I17" s="191" t="s">
         <v>45</v>
       </c>
@@ -4820,10 +4822,10 @@
       <c r="F27" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="257" t="s">
+      <c r="G27" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="258"/>
+      <c r="H27" s="259"/>
       <c r="I27" s="191" t="s">
         <v>45</v>
       </c>
@@ -5149,10 +5151,10 @@
       <c r="D7" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="259" t="s">
+      <c r="E7" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="260"/>
+      <c r="F7" s="261"/>
       <c r="G7" s="226"/>
       <c r="H7" s="211"/>
       <c r="I7" s="186"/>
